--- a/resource/file/挂车表.xlsx
+++ b/resource/file/挂车表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86913\Documents\GitHub\cpManagement\resource\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8C4872-A777-4962-9811-0AE12BB6B9A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700F3773-CED1-4E81-AA02-4E62182D02AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="挂车表" sheetId="2" r:id="rId1"/>
@@ -430,7 +430,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -570,32 +570,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -603,7 +577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -623,30 +597,51 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -674,77 +669,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1030,64 +968,64 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="33"/>
@@ -1097,641 +1035,585 @@
       <c r="F3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="33" t="s">
         <v>58</v>
       </c>
       <c r="L3" s="33"/>
     </row>
     <row r="4" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="33" t="s">
         <v>59</v>
       </c>
       <c r="G4" s="33"/>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
       <c r="L4" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="33" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="33" t="s">
         <v>60</v>
       </c>
       <c r="G5" s="33"/>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
       <c r="L5" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
     </row>
     <row r="7" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="33" t="s">
         <v>63</v>
       </c>
       <c r="G7" s="33"/>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
       <c r="L8" s="33"/>
     </row>
     <row r="9" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="32"/>
+      <c r="K9" s="33"/>
       <c r="L9" s="33"/>
     </row>
     <row r="10" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="40" t="s">
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="7" t="s">
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="8"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="24" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="28" t="s">
+      <c r="F12" s="31"/>
+      <c r="G12" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="3" t="s">
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="9" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="7" t="s">
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="8"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="31"/>
     </row>
     <row r="15" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="24" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="28" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="14"/>
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="24" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="28" t="s">
+      <c r="F16" s="12"/>
+      <c r="G16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="28" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="28" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="14"/>
       <c r="L17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="28" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="28" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="14"/>
       <c r="L18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="14"/>
       <c r="L19" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="28" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="14"/>
       <c r="L20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="28" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29" t="s">
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="14"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="24" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="26"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="12"/>
     </row>
     <row r="23" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="24" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="28" t="s">
+      <c r="F23" s="12"/>
+      <c r="G23" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="14"/>
       <c r="L23" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="28" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="14"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="24" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="26"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="12"/>
     </row>
     <row r="26" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="26"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="12"/>
     </row>
     <row r="27" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="17"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="20"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="27"/>
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="20"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="27"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="20"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="27"/>
     </row>
     <row r="31" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="23"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="30"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="11"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="17"/>
     </row>
     <row r="33" spans="1:12" ht="12" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="14"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:G11"/>
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:L22"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="A32:L33"/>
     <mergeCell ref="B27:L31"/>
@@ -1748,6 +1630,62 @@
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:K24"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:L22"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.26" top="0.62" bottom="0.49" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1760,7 +1698,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
